--- a/output/0/tRNA-Tyr-GTA-5-3.xlsx
+++ b/output/0/tRNA-Tyr-GTA-5-3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>chr14</t>
   </si>
@@ -183,72 +183,6 @@
   </si>
   <si>
     <t>73</t>
-  </si>
-  <si>
-    <t>21121329</t>
-  </si>
-  <si>
-    <t>21121352</t>
-  </si>
-  <si>
-    <t>21121349</t>
-  </si>
-  <si>
-    <t>CTACCAGCTGAGCTATCGAA</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>72% (56)</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>21121672</t>
-  </si>
-  <si>
-    <t>21121695</t>
-  </si>
-  <si>
-    <t>21121692</t>
-  </si>
-  <si>
-    <t>CAAAAAAAAAAAAAAGTGAG</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>11% (23)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>21121673</t>
-  </si>
-  <si>
-    <t>21121696</t>
-  </si>
-  <si>
-    <t>21121693</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAGTGAGA</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>3% (13)</t>
-  </si>
-  <si>
-    <t>67</t>
   </si>
 </sst>
 </file>
@@ -293,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -653,183 +587,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
